--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>St14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H2">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I2">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J2">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.349177877339446</v>
+        <v>0.7971666666666667</v>
       </c>
       <c r="N2">
-        <v>0.349177877339446</v>
+        <v>2.3915</v>
       </c>
       <c r="O2">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="P2">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="Q2">
-        <v>5.112619819771227</v>
+        <v>0.08676335427777779</v>
       </c>
       <c r="R2">
-        <v>5.112619819771227</v>
+        <v>0.7808701885000001</v>
       </c>
       <c r="S2">
-        <v>0.09312043594363667</v>
+        <v>0.0009102113561066478</v>
       </c>
       <c r="T2">
-        <v>0.09312043594363667</v>
+        <v>0.0009102113561066479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H3">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I3">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J3">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.62824752369434</v>
+        <v>0.679891</v>
       </c>
       <c r="N3">
-        <v>0.62824752369434</v>
+        <v>2.039673</v>
       </c>
       <c r="O3">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="P3">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="Q3">
-        <v>9.198723486824472</v>
+        <v>0.07399910980966667</v>
       </c>
       <c r="R3">
-        <v>9.198723486824472</v>
+        <v>0.665991988287</v>
       </c>
       <c r="S3">
-        <v>0.1675440716138354</v>
+        <v>0.0007763050501125296</v>
       </c>
       <c r="T3">
-        <v>0.1675440716138354</v>
+        <v>0.0007763050501125297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H4">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I4">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J4">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.350932140950405</v>
+        <v>0.76147</v>
       </c>
       <c r="N4">
-        <v>0.350932140950405</v>
+        <v>2.28441</v>
       </c>
       <c r="O4">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="P4">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="Q4">
-        <v>5.138305533238617</v>
+        <v>0.08287814097666667</v>
       </c>
       <c r="R4">
-        <v>5.138305533238617</v>
+        <v>0.7459032687899999</v>
       </c>
       <c r="S4">
-        <v>0.09358827140176267</v>
+        <v>0.0008694526130058906</v>
       </c>
       <c r="T4">
-        <v>0.09358827140176267</v>
+        <v>0.0008694526130058906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H5">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I5">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J5">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.163694222624228</v>
+        <v>0.170608</v>
       </c>
       <c r="N5">
-        <v>0.163694222624228</v>
+        <v>0.5118240000000001</v>
       </c>
       <c r="O5">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061849</v>
       </c>
       <c r="P5">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061851</v>
       </c>
       <c r="Q5">
-        <v>2.396790808591492</v>
+        <v>0.01856891785066667</v>
       </c>
       <c r="R5">
-        <v>2.396790808591492</v>
+        <v>0.167120260656</v>
       </c>
       <c r="S5">
-        <v>0.04365476269106359</v>
+        <v>0.0001948015961229057</v>
       </c>
       <c r="T5">
-        <v>0.04365476269106359</v>
+        <v>0.0001948015961229057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H6">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I6">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J6">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.349177877339446</v>
+        <v>0.7971666666666667</v>
       </c>
       <c r="N6">
-        <v>0.349177877339446</v>
+        <v>2.3915</v>
       </c>
       <c r="O6">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="P6">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="Q6">
-        <v>7.58733557274874</v>
+        <v>12.01664445222222</v>
       </c>
       <c r="R6">
-        <v>7.58733557274874</v>
+        <v>108.14980007</v>
       </c>
       <c r="S6">
-        <v>0.1381945110514085</v>
+        <v>0.1260634323529148</v>
       </c>
       <c r="T6">
-        <v>0.1381945110514085</v>
+        <v>0.1260634323529148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H7">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I7">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J7">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.62824752369434</v>
+        <v>0.679891</v>
       </c>
       <c r="N7">
-        <v>0.62824752369434</v>
+        <v>2.039673</v>
       </c>
       <c r="O7">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="P7">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="Q7">
-        <v>13.65127946059281</v>
+        <v>10.24880837959333</v>
       </c>
       <c r="R7">
-        <v>13.65127946059281</v>
+        <v>92.23927541634001</v>
       </c>
       <c r="S7">
-        <v>0.2486422107200019</v>
+        <v>0.1075175326186773</v>
       </c>
       <c r="T7">
-        <v>0.2486422107200019</v>
+        <v>0.1075175326186773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H8">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I8">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J8">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.350932140950405</v>
+        <v>0.76147</v>
       </c>
       <c r="N8">
-        <v>0.350932140950405</v>
+        <v>2.28441</v>
       </c>
       <c r="O8">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="P8">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="Q8">
-        <v>7.625454215318036</v>
+        <v>11.47854599753333</v>
       </c>
       <c r="R8">
-        <v>7.625454215318036</v>
+        <v>103.3069139778</v>
       </c>
       <c r="S8">
-        <v>0.1388887978825759</v>
+        <v>0.120418384069129</v>
       </c>
       <c r="T8">
-        <v>0.1388887978825759</v>
+        <v>0.120418384069129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H9">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I9">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J9">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.163694222624228</v>
+        <v>0.170608</v>
       </c>
       <c r="N9">
-        <v>0.163694222624228</v>
+        <v>0.5118240000000001</v>
       </c>
       <c r="O9">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061849</v>
       </c>
       <c r="P9">
-        <v>0.1097108200312264</v>
+        <v>0.07081709941061851</v>
       </c>
       <c r="Q9">
-        <v>3.556934957717466</v>
+        <v>2.571777976213334</v>
       </c>
       <c r="R9">
-        <v>3.556934957717466</v>
+        <v>23.14600178592</v>
       </c>
       <c r="S9">
-        <v>0.06478544182083003</v>
+        <v>0.02697984118778935</v>
       </c>
       <c r="T9">
-        <v>0.06478544182083003</v>
+        <v>0.02697984118778935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.426166494830532</v>
+        <v>23.69325166666667</v>
       </c>
       <c r="H10">
-        <v>0.426166494830532</v>
+        <v>71.07975500000001</v>
       </c>
       <c r="I10">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556568</v>
       </c>
       <c r="J10">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556569</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.349177877339446</v>
+        <v>0.7971666666666667</v>
       </c>
       <c r="N10">
-        <v>0.349177877339446</v>
+        <v>2.3915</v>
       </c>
       <c r="O10">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="P10">
-        <v>0.234025310396041</v>
+        <v>0.3308932235309289</v>
       </c>
       <c r="Q10">
-        <v>0.1488079120581171</v>
+        <v>18.88747045361111</v>
       </c>
       <c r="R10">
-        <v>0.1488079120581171</v>
+        <v>169.9872340825</v>
       </c>
       <c r="S10">
-        <v>0.002710363400995905</v>
+        <v>0.1981434470590633</v>
       </c>
       <c r="T10">
-        <v>0.002710363400995905</v>
+        <v>0.1981434470590633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.426166494830532</v>
+        <v>23.69325166666667</v>
       </c>
       <c r="H11">
-        <v>0.426166494830532</v>
+        <v>71.07975500000001</v>
       </c>
       <c r="I11">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556568</v>
       </c>
       <c r="J11">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556569</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.62824752369434</v>
+        <v>0.679891</v>
       </c>
       <c r="N11">
-        <v>0.62824752369434</v>
+        <v>2.039673</v>
       </c>
       <c r="O11">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="P11">
-        <v>0.4210628200685921</v>
+        <v>0.282213662521012</v>
       </c>
       <c r="Q11">
-        <v>0.2677380450587785</v>
+        <v>16.10882856890167</v>
       </c>
       <c r="R11">
-        <v>0.2677380450587785</v>
+        <v>144.979457120115</v>
       </c>
       <c r="S11">
-        <v>0.00487653773475496</v>
+        <v>0.1689934514293543</v>
       </c>
       <c r="T11">
-        <v>0.00487653773475496</v>
+        <v>0.1689934514293543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.426166494830532</v>
+        <v>23.69325166666667</v>
       </c>
       <c r="H12">
-        <v>0.426166494830532</v>
+        <v>71.07975500000001</v>
       </c>
       <c r="I12">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556568</v>
       </c>
       <c r="J12">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556569</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.350932140950405</v>
+        <v>0.76147</v>
       </c>
       <c r="N12">
-        <v>0.350932140950405</v>
+        <v>2.28441</v>
       </c>
       <c r="O12">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="P12">
-        <v>0.2352010495041406</v>
+        <v>0.3160760145374406</v>
       </c>
       <c r="Q12">
-        <v>0.1495555204322083</v>
+        <v>18.04170034661667</v>
       </c>
       <c r="R12">
-        <v>0.1495555204322083</v>
+        <v>162.37530311955</v>
       </c>
       <c r="S12">
-        <v>0.002723980219802041</v>
+        <v>0.1892706970086535</v>
       </c>
       <c r="T12">
-        <v>0.002723980219802041</v>
+        <v>0.1892706970086535</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.69325166666667</v>
+      </c>
+      <c r="H13">
+        <v>71.07975500000001</v>
+      </c>
+      <c r="I13">
+        <v>0.5988138558556568</v>
+      </c>
+      <c r="J13">
+        <v>0.5988138558556569</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.170608</v>
+      </c>
+      <c r="N13">
+        <v>0.5118240000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.07081709941061849</v>
+      </c>
+      <c r="P13">
+        <v>0.07081709941061851</v>
+      </c>
+      <c r="Q13">
+        <v>4.042258280346667</v>
+      </c>
+      <c r="R13">
+        <v>36.38032452312001</v>
+      </c>
+      <c r="S13">
+        <v>0.04240626035858582</v>
+      </c>
+      <c r="T13">
+        <v>0.04240626035858584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H14">
+        <v>2.072065</v>
+      </c>
+      <c r="I14">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J14">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7971666666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.3915</v>
+      </c>
+      <c r="O14">
+        <v>0.3308932235309289</v>
+      </c>
+      <c r="P14">
+        <v>0.3308932235309289</v>
+      </c>
+      <c r="Q14">
+        <v>0.550593716388889</v>
+      </c>
+      <c r="R14">
+        <v>4.955343447500001</v>
+      </c>
+      <c r="S14">
+        <v>0.005776132762844188</v>
+      </c>
+      <c r="T14">
+        <v>0.005776132762844188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H15">
+        <v>2.072065</v>
+      </c>
+      <c r="I15">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J15">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.679891</v>
+      </c>
+      <c r="N15">
+        <v>2.039673</v>
+      </c>
+      <c r="O15">
+        <v>0.282213662521012</v>
+      </c>
+      <c r="P15">
+        <v>0.282213662521012</v>
+      </c>
+      <c r="Q15">
+        <v>0.4695927816383335</v>
+      </c>
+      <c r="R15">
+        <v>4.226335034745</v>
+      </c>
+      <c r="S15">
+        <v>0.004926373422867947</v>
+      </c>
+      <c r="T15">
+        <v>0.004926373422867947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.426166494830532</v>
-      </c>
-      <c r="H13">
-        <v>0.426166494830532</v>
-      </c>
-      <c r="I13">
-        <v>0.0115814968748857</v>
-      </c>
-      <c r="J13">
-        <v>0.0115814968748857</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.163694222624228</v>
-      </c>
-      <c r="N13">
-        <v>0.163694222624228</v>
-      </c>
-      <c r="O13">
-        <v>0.1097108200312264</v>
-      </c>
-      <c r="P13">
-        <v>0.1097108200312264</v>
-      </c>
-      <c r="Q13">
-        <v>0.06976099307977601</v>
-      </c>
-      <c r="R13">
-        <v>0.06976099307977601</v>
-      </c>
-      <c r="S13">
-        <v>0.001270615519332796</v>
-      </c>
-      <c r="T13">
-        <v>0.001270615519332796</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H16">
+        <v>2.072065</v>
+      </c>
+      <c r="I16">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J16">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.76147</v>
+      </c>
+      <c r="N16">
+        <v>2.28441</v>
+      </c>
+      <c r="O16">
+        <v>0.3160760145374406</v>
+      </c>
+      <c r="P16">
+        <v>0.3160760145374406</v>
+      </c>
+      <c r="Q16">
+        <v>0.5259384451833334</v>
+      </c>
+      <c r="R16">
+        <v>4.73344600665</v>
+      </c>
+      <c r="S16">
+        <v>0.005517480846652265</v>
+      </c>
+      <c r="T16">
+        <v>0.005517480846652264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H17">
+        <v>2.072065</v>
+      </c>
+      <c r="I17">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J17">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.170608</v>
+      </c>
+      <c r="N17">
+        <v>0.5118240000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.07081709941061849</v>
+      </c>
+      <c r="P17">
+        <v>0.07081709941061851</v>
+      </c>
+      <c r="Q17">
+        <v>0.1178369551733334</v>
+      </c>
+      <c r="R17">
+        <v>1.06053259656</v>
+      </c>
+      <c r="S17">
+        <v>0.001236196268120411</v>
+      </c>
+      <c r="T17">
+        <v>0.001236196268120411</v>
       </c>
     </row>
   </sheetData>
